--- a/CongViecBCM/Job Description TTCDS/Dev_Evaluation/2025_DEV_QuyenNV.xlsx
+++ b/CongViecBCM/Job Description TTCDS/Dev_Evaluation/2025_DEV_QuyenNV.xlsx
@@ -277,13 +277,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,7 +592,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E6" sqref="E6:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,10 +617,10 @@
       <c r="B3" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="16"/>
       <c r="F3" t="s">
         <v>42</v>
       </c>
@@ -659,7 +659,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" ref="E6:E22" si="0">IF(D6="","",D6/3*C6)</f>
+        <f>ROUND(IF(D6="","",D6/3*C6),1)</f>
         <v>8</v>
       </c>
       <c r="F6" s="3"/>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E7:E22" si="0">ROUND(IF(D7="","",D7/3*C7),1)</f>
         <v>8</v>
       </c>
       <c r="F7" s="3"/>
@@ -717,7 +717,7 @@
       </c>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>5.333333333333333</v>
+        <v>5.3</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>5.333333333333333</v>
+        <v>5.3</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>2.6666666666666665</v>
+        <v>2.7</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="E12" s="3">
         <f t="shared" si="0"/>
-        <v>4.6666666666666661</v>
+        <v>4.7</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="E13" s="3">
         <f t="shared" si="0"/>
-        <v>2.6666666666666665</v>
+        <v>2.7</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="E14" s="3">
         <f t="shared" si="0"/>
-        <v>2.6666666666666665</v>
+        <v>2.7</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="E15" s="3">
         <f t="shared" si="0"/>
-        <v>2.6666666666666665</v>
+        <v>2.7</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -850,7 +850,7 @@
       </c>
       <c r="E16" s="3">
         <f t="shared" si="0"/>
-        <v>2.6666666666666665</v>
+        <v>2.7</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="E20" s="3">
         <f t="shared" si="0"/>
-        <v>4.6666666666666661</v>
+        <v>4.7</v>
       </c>
       <c r="F20" s="3"/>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="E21" s="3">
         <f t="shared" si="0"/>
-        <v>4.6666666666666661</v>
+        <v>4.7</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="E24" s="11">
         <f>SUM(E6:E22)</f>
-        <v>71.999999999999986</v>
+        <v>72.200000000000017</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -992,7 +992,7 @@
       </c>
       <c r="E25" s="11">
         <f>IF(C24=0,"",E24/C24*100)</f>
-        <v>71.999999999999986</v>
+        <v>72.200000000000017</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1017,64 +1017,64 @@
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
     </row>
     <row r="36" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
@@ -1082,57 +1082,62 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
     </row>
     <row r="42" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
     </row>
     <row r="43" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
     </row>
     <row r="44" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="A37:F37"/>
     <mergeCell ref="A31:F31"/>
@@ -1140,11 +1145,6 @@
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="A36:F36"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/CongViecBCM/Job Description TTCDS/Dev_Evaluation/2025_DEV_QuyenNV.xlsx
+++ b/CongViecBCM/Job Description TTCDS/Dev_Evaluation/2025_DEV_QuyenNV.xlsx
@@ -277,13 +277,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,7 +592,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E22"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,10 +617,10 @@
       <c r="B3" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="14"/>
       <c r="F3" t="s">
         <v>42</v>
       </c>
@@ -1002,8 +1002,8 @@
         <v>27</v>
       </c>
       <c r="E26" s="11" t="str">
-        <f>IF(E25="","",IF(E25&gt;=90,"Đề xuất Dev5",IF(E25&gt;=80,"Đề xuất Dev4",IF(E25&gt;=70,"Đề xuất Dev3",IF(E25&gt;=60,"Đề xuất Dev2","Đề xuất Dev1")))))</f>
-        <v>Đề xuất Dev3</v>
+        <f>IF(E25="","",IF(E25&gt;=90,"Developer 5",IF(E25&gt;=80,"Developer 4",IF(E25&gt;=70,"Developer 3",IF(E25&gt;=60,"Developer 2","Developer 1")))))</f>
+        <v>Developer 3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1017,64 +1017,64 @@
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="36" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
@@ -1082,62 +1082,57 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
     </row>
     <row r="41" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
     </row>
     <row r="42" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
     </row>
     <row r="43" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
     </row>
     <row r="44" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="A37:F37"/>
     <mergeCell ref="A31:F31"/>
@@ -1145,6 +1140,11 @@
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="A36:F36"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/CongViecBCM/Job Description TTCDS/Dev_Evaluation/2025_DEV_QuyenNV.xlsx
+++ b/CongViecBCM/Job Description TTCDS/Dev_Evaluation/2025_DEV_QuyenNV.xlsx
@@ -42,57 +42,6 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>System Design (Thiết kế hệ thống)</t>
-  </si>
-  <si>
-    <t>Programming (Lập trình)</t>
-  </si>
-  <si>
-    <t>System Integration (Tích hợp hệ thống)</t>
-  </si>
-  <si>
-    <t>Testing (Kiểm thử)</t>
-  </si>
-  <si>
-    <t>Research (Nghiên cứu)</t>
-  </si>
-  <si>
-    <t>AI Tools Utilization / Sử dụng công cụ AI</t>
-  </si>
-  <si>
-    <t>Process Compliance &amp; Information Security (Tuân thủ quy trình và bảo mật thông tin)</t>
-  </si>
-  <si>
-    <t>Application Support (Hỗ trợ ứng dụng)</t>
-  </si>
-  <si>
-    <t>Business Analysis (Phân tích nghiệp vụ)</t>
-  </si>
-  <si>
-    <t>Quality Assurance (Đảm bảo chất lượng)</t>
-  </si>
-  <si>
-    <t>Agile / Scrum Methodology (Phương pháp Agile / Scrum)</t>
-  </si>
-  <si>
-    <t>Computer hardware (Phần cứng máy tính)</t>
-  </si>
-  <si>
-    <t>Operating systems (Hệ điều hành)</t>
-  </si>
-  <si>
-    <t>Networking (Mạng)</t>
-  </si>
-  <si>
-    <t>Project Management (Quản lý dự án)</t>
-  </si>
-  <si>
-    <t>Solution Architecture (Kiến trúc giải pháp)</t>
-  </si>
-  <si>
-    <t>Program Management (Quản lý chương trình)</t>
-  </si>
-  <si>
     <t>Tổng trọng số:</t>
   </si>
   <si>
@@ -154,6 +103,57 @@
   </si>
   <si>
     <t>Nguyễn Văn Quyền</t>
+  </si>
+  <si>
+    <t>Nắm vững ngôn ngữ lập trình chính (C#/Java/... theo dự án)</t>
+  </si>
+  <si>
+    <t>Nắm vững OOP, cấu trúc dữ liệu và giải thuật cơ bản</t>
+  </si>
+  <si>
+    <t>Hiểu kiến trúc hệ thống và module mình phụ trách</t>
+  </si>
+  <si>
+    <t>Thiết kế và hiện thực chức năng backend/frontend theo yêu cầu</t>
+  </si>
+  <si>
+    <t>Viết code sạch, dễ bảo trì, tuân thủ coding convention</t>
+  </si>
+  <si>
+    <t>Viết unit test / integration test cơ bản</t>
+  </si>
+  <si>
+    <t>Debug, phân tích lỗi và tối ưu hiệu năng ở mức vừa</t>
+  </si>
+  <si>
+    <t>Sử dụng hệ thống quản lý mã nguồn (Git, branch, merge, pull request)</t>
+  </si>
+  <si>
+    <t>Hiểu và tuân thủ quy trình phát triển (Agile/Scrum, quy trình nội bộ)</t>
+  </si>
+  <si>
+    <t>Làm việc với cơ sở dữ liệu (thiết kế lược đồ đơn giản, viết truy vấn)</t>
+  </si>
+  <si>
+    <t>Tích hợp với API/dịch vụ khác (REST, message queue, v.v.)</t>
+  </si>
+  <si>
+    <t>Viết tài liệu kỹ thuật mức cơ bản (readme, mô tả chi tiết chức năng được giao)</t>
+  </si>
+  <si>
+    <t>Phối hợp với Tester/PO/DevOps/AI để hoàn thiện tính năng</t>
+  </si>
+  <si>
+    <t>Thiết kế kỹ thuật cho module/tính năng phức tạp</t>
+  </si>
+  <si>
+    <t>Review code và hỗ trợ coaching cho Developer khác</t>
+  </si>
+  <si>
+    <t>Đề xuất cải tiến kiến trúc, hiệu năng và chất lượng mã nguồn</t>
+  </si>
+  <si>
+    <t>Tham gia thiết kế giải pháp end-to-end cùng PO/Architect</t>
   </si>
 </sst>
 </file>
@@ -277,13 +277,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,7 +592,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B6" sqref="B6:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,14 +615,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="16"/>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>5</v>
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3">
         <v>8</v>
@@ -669,7 +669,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C7" s="3">
         <v>8</v>
@@ -688,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3">
         <v>8</v>
@@ -702,12 +702,12 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3">
         <v>8</v>
@@ -726,7 +726,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3">
         <v>8</v>
@@ -745,7 +745,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3">
         <v>8</v>
@@ -759,12 +759,12 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3">
         <v>7</v>
@@ -778,12 +778,12 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3">
         <v>4</v>
@@ -797,12 +797,12 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C14" s="3">
         <v>4</v>
@@ -816,12 +816,12 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C15" s="3">
         <v>4</v>
@@ -840,7 +840,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3">
         <v>4</v>
@@ -854,12 +854,12 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
@@ -878,7 +878,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
@@ -897,7 +897,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3">
         <v>3</v>
@@ -916,7 +916,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C20" s="3">
         <v>7</v>
@@ -935,7 +935,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C21" s="3">
         <v>7</v>
@@ -954,7 +954,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C22" s="3">
         <v>6</v>
@@ -970,14 +970,14 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C24" s="11">
         <f>SUM(C6:C22)</f>
         <v>100</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E24" s="11">
         <f>SUM(E6:E22)</f>
@@ -988,7 +988,7 @@
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E25" s="11">
         <f>IF(C24=0,"",E24/C24*100)</f>
@@ -999,7 +999,7 @@
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E26" s="11" t="str">
         <f>IF(E25="","",IF(E25&gt;=90,"Developer 5",IF(E25&gt;=80,"Developer 4",IF(E25&gt;=70,"Developer 3",IF(E25&gt;=60,"Developer 2","Developer 1")))))</f>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1017,122 +1017,127 @@
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
+      <c r="A31" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="A32" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+      <c r="A33" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
+      <c r="A34" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
     </row>
     <row r="36" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
+      <c r="A36" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
+      <c r="A37" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
+      <c r="A40" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
+      <c r="A41" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
     </row>
     <row r="42" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
+      <c r="A42" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
     </row>
     <row r="43" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
+      <c r="A43" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
     </row>
     <row r="44" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
+      <c r="A44" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="A37:F37"/>
     <mergeCell ref="A31:F31"/>
@@ -1140,11 +1145,6 @@
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="A36:F36"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
